--- a/assignment/2018110659_statistic_hw2.xlsx
+++ b/assignment/2018110659_statistic_hw2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\is910\Desktop\applied_statistics\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doubleseat/applied_statistics/assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD23BA5D-8D37-47E1-A4FA-A479ED5D4335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CA1154-4E93-0446-BDBF-C377FD6CC1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="1116" windowWidth="14376" windowHeight="15228" xr2:uid="{7E1F2736-9B6E-4E16-B802-9AB7BD2D3EA5}"/>
+    <workbookView xWindow="10940" yWindow="560" windowWidth="21860" windowHeight="19300" activeTab="1" xr2:uid="{7E1F2736-9B6E-4E16-B802-9AB7BD2D3EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;- alpha is 0.05, so reject H0. they are not equal.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;- alpha = 0.05, so accept H0. they are equal.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -397,6 +393,10 @@
   </si>
   <si>
     <t>Y=160.67+(0.11795)*X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- alpha is 0.05, so accept H0. they are equal.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +408,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,8 +720,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BDCE06D5-BE60-48AF-8DF5-B3A1883E6724}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,21 +1035,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4E6858-F71A-479F-8752-9F043C29A7FE}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.796875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="B4">
         <v>21</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="B5">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="B6">
         <v>12</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="B7">
         <v>18</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="B8">
         <v>24</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="B9">
         <v>13</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>21.695652173913043</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>451.66956521739104</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>21.160000000000014</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="B18">
         <f t="shared" ref="B18:E18" si="2">(B5-B$12)^2</f>
         <v>0.11111111111111033</v>
@@ -1274,7 +1274,7 @@
         <v>129.95999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="B19">
         <f t="shared" ref="B19:E19" si="3">(B6-B$12)^2</f>
         <v>32.111111111111121</v>
@@ -1292,7 +1292,7 @@
         <v>0.15999999999999887</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="B20">
         <f t="shared" ref="B20:E20" si="4">(B7-B$12)^2</f>
         <v>0.11111111111111033</v>
@@ -1310,7 +1310,7 @@
         <v>134.56000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="B21">
         <f t="shared" ref="B21:E21" si="5">(B8-B$12)^2</f>
         <v>40.111111111111093</v>
@@ -1328,7 +1328,7 @@
         <v>19.359999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="B22">
         <f t="shared" ref="B22:E22" si="6">(B9-B$12)^2</f>
         <v>21.777777777777789</v>
@@ -1350,12 +1350,12 @@
         <v>1541.56</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8">
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
         <v>13</v>
@@ -1383,7 +1383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
@@ -1408,10 +1408,10 @@
         <v>0.17141260699746819</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="B28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="B29" s="7" t="s">
         <v>20</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>9.9689445008115829</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>9.9689445008115829</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>18.30227783414491</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6">
       <c r="B39" t="s">
         <v>29</v>
       </c>
@@ -1531,26 +1531,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD63337-047A-4D89-B6DA-647C4C4DF46D}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="117" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>22.666666666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>19.333333333333332</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>24.333333333333332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>19.555555555555557</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>72.444444444444372</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>2.4197530864197581</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5">
       <c r="B18">
         <f t="shared" ref="B18:D18" si="4">(B5-$E$10)^2</f>
         <v>2.4197530864197581</v>
@@ -1761,7 +1761,7 @@
         <v>11.864197530864187</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="B19">
         <f t="shared" ref="B19:D19" si="5">(B6-$E$10)^2</f>
         <v>57.086419753086446</v>
@@ -1775,7 +1775,7 @@
         <v>2.4197530864197581</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5">
       <c r="B20">
         <f t="shared" ref="B20:D20" si="6">(B7-$E$10)^2</f>
         <v>2.4197530864197581</v>
@@ -1789,7 +1789,7 @@
         <v>42.975308641975332</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5">
       <c r="B21">
         <f t="shared" ref="B21:D21" si="7">(B8-$E$10)^2</f>
         <v>19.753086419753071</v>
@@ -1803,7 +1803,7 @@
         <v>0.19753086419752947</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5">
       <c r="B22">
         <f t="shared" ref="B22:D22" si="8">(B9-$E$10)^2</f>
         <v>42.975308641975332</v>
@@ -1821,7 +1821,7 @@
         <v>444.44444444444446</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1830,31 +1830,31 @@
         <v>7.2592592592592737</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5">
       <c r="B25">
         <f t="shared" ref="B25:B29" si="9">$B$12*(E5-$E$10)^2</f>
         <v>29.037037037037027</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5">
       <c r="B26">
         <f t="shared" si="9"/>
         <v>0.14814814814815183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5">
       <c r="B27">
         <f t="shared" si="9"/>
         <v>19.592592592592617</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5">
       <c r="B28">
         <f t="shared" si="9"/>
         <v>68.481481481481396</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5">
       <c r="B29">
         <f t="shared" si="9"/>
         <v>37.925925925925959</v>
@@ -1864,12 +1864,12 @@
         <v>162.44444444444443</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8">
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -1877,22 +1877,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8">
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8">
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8">
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8">
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
         <v>13</v>
@@ -1920,7 +1920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8">
       <c r="B41" s="5" t="s">
         <v>41</v>
       </c>
@@ -1945,10 +1945,10 @@
         <v>0.47000386181570197</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="B42" s="5" t="s">
         <v>40</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8">
       <c r="B43" s="5" t="s">
         <v>19</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8">
       <c r="B44" s="7" t="s">
         <v>20</v>
       </c>
@@ -2029,63 +2029,63 @@
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="14.09765625" customWidth="1"/>
-    <col min="15" max="15" width="19.09765625" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" customWidth="1"/>
-    <col min="17" max="17" width="12.19921875" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>53</v>
       </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
       <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>62</v>
       </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6">
         <v>165</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>203.06775523388268</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13">
       <c r="B7">
         <v>172</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>93.826043180086117</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>160</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>44.261060548550084</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13">
       <c r="B9">
         <v>186</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>89.136550467011858</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13">
       <c r="B10">
         <v>185</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>44.080667453511516</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13">
       <c r="B11">
         <v>157</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>259.38625358316477</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13">
       <c r="B12">
         <v>155</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>8.6694152635628203</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13">
       <c r="B13">
         <v>177</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>5.2151493898106889</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13">
       <c r="B14">
         <v>171</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>5.4322894948111718E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13">
       <c r="B15">
         <v>164</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>2.7864715275589873</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13">
       <c r="B16">
         <v>182</v>
       </c>
@@ -2525,16 +2525,16 @@
         <v>83.156965421771403</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13">
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <f>COUNT(B6:B16)</f>
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <f>SUM(E6:E16)</f>
@@ -2565,7 +2565,7 @@
         <v>833.64065496385899</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13">
       <c r="D19" t="s">
         <v>7</v>
       </c>
@@ -2578,99 +2578,99 @@
         <v>82.181818181818187</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13">
       <c r="L20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20">
         <f>L18/(L18+M18)</f>
         <v>9.5001939293098969E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <f>(C18*I18-E18*F18)/(C18*G18-E18^2)</f>
         <v>8.0542852928160491E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <f>F19-C21*E19</f>
         <v>68.460244873875212</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <f>(H18-C22*F18-C21*I18)/(C18-2)</f>
         <v>92.626739440427627</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <f>SQRT(C24)</f>
         <v>9.6242786451986948</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>50</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>51</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>52</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>53</v>
       </c>
-      <c r="I34" t="s">
-        <v>54</v>
-      </c>
       <c r="K34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" t="s">
         <v>61</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>62</v>
       </c>
-      <c r="M34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35">
         <v>165</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>48.909309662225787</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13">
       <c r="B36">
         <v>172</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0.2287604127771149</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13">
       <c r="B37">
         <v>160</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>122.10035159726633</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13">
       <c r="B38">
         <v>186</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>275.60733839063266</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13">
       <c r="B39">
         <v>185</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>188.07909321422687</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13">
       <c r="B40">
         <v>157</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>128.52770125278855</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13">
       <c r="B41">
         <v>155</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>221.12827188956595</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13">
       <c r="B42">
         <v>177</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>39.739827683318026</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13">
       <c r="B43">
         <v>171</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0.43271328841094769</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13">
       <c r="B44">
         <v>164</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>37.2867342700021</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13">
       <c r="B45">
         <v>182</v>
       </c>
@@ -3088,16 +3088,16 @@
         <v>158.79593203936898</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <f>COUNT(B35:B45)</f>
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47">
         <f>SUM(E35:E45)</f>
@@ -3128,7 +3128,7 @@
         <v>1220.8360337005834</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13">
       <c r="D48" t="s">
         <v>7</v>
       </c>
@@ -3141,54 +3141,54 @@
         <v>170.36363636363637</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:13">
       <c r="L49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M49">
         <f>L47/(L47+M47)</f>
         <v>9.5001939293099455E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <f>(C47*I47-E47*F47)/(C47*G47-E47^2)</f>
         <v>0.11795204147764096</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:13">
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51">
         <f>F48-C50*E48</f>
         <v>160.67012313674661</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <f>(H47-C51*F47-C50*I47)/(C47-2)</f>
         <v>135.64844818894926</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:13">
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <f>SQRT(C53)</f>
         <v>11.646821377051735</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:13">
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3206,58 +3206,57 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.59765625" customWidth="1"/>
-    <col min="12" max="12" width="9.69921875" customWidth="1"/>
-    <col min="14" max="14" width="6.69921875" customWidth="1"/>
-    <col min="15" max="15" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
       <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>71</v>
       </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>275880</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="B5">
         <v>2</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>142000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="B6">
         <v>3</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>52875</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="B7">
         <v>4</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>31360</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="B8">
         <v>5</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="B9">
         <v>6</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>18720</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="B10">
         <v>7</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>100764</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="B11">
         <v>8</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>178164</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="B12">
         <v>9</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>406250</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="B13">
         <v>10</v>
       </c>
@@ -3607,9 +3606,9 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <f>SUM(C4:C13)</f>
@@ -3644,9 +3643,9 @@
         <v>1265013</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <f>AVERAGE(C4:C13)</f>
@@ -3661,58 +3660,58 @@
         <v>316.39999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <f>C16-C19*D16</f>
         <v>-306.15953307392999</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <f>C16-F19*E16</f>
         <v>-17.266454931669671</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <f>($B$13*I15-D15*C15)/(B13*G15-D15^2)</f>
         <v>36.142996108949418</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <f>(B13*L15-E15*C15)/(B13*K15-E15^2)</f>
         <v>1.0517271015539498</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24">
         <f>$C$18+$C$19*D4</f>
         <v>488.98638132295719</v>
@@ -3726,7 +3725,7 @@
         <v>6563.2064111493</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6">
       <c r="B25">
         <f t="shared" ref="B25:B33" si="7">$C$18+$C$19*D5</f>
         <v>416.70038910505843</v>
@@ -3740,7 +3739,7 @@
         <v>3806.9380157156133</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6">
       <c r="B26">
         <f t="shared" si="7"/>
         <v>235.98540856031127</v>
@@ -3754,7 +3753,7 @@
         <v>0.97103003073473138</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6">
       <c r="B27">
         <f t="shared" si="7"/>
         <v>199.84241245136184</v>
@@ -3768,7 +3767,7 @@
         <v>1587.4178299444329</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6">
       <c r="B28">
         <f t="shared" si="7"/>
         <v>55.270428015564221</v>
@@ -3782,7 +3781,7 @@
         <v>7179.1003686656841</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="B29">
         <f t="shared" si="7"/>
         <v>127.55642023346303</v>
@@ -3796,7 +3795,7 @@
         <v>5.9710820754288756</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="B30">
         <f t="shared" si="7"/>
         <v>344.41439688715957</v>
@@ -3810,7 +3809,7 @@
         <v>1116.5219193326191</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6">
       <c r="B31">
         <f t="shared" si="7"/>
         <v>452.84338521400775</v>
@@ -3824,7 +3823,7 @@
         <v>2385.6762791639512</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6">
       <c r="B32">
         <f t="shared" si="7"/>
         <v>597.41536964980548</v>
@@ -3838,7 +3837,7 @@
         <v>2765.1433490665981</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="B33">
         <f t="shared" si="7"/>
         <v>235.98540856031127</v>
@@ -3852,9 +3851,9 @@
         <v>1294.9496292525237</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <f>SUM(C24:C33)</f>
@@ -3865,30 +3864,30 @@
         <v>26705.89591439689</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="18" thickBot="1"/>
+    <row r="36" spans="1:7">
       <c r="B36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="10" t="s">
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="11" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -3910,9 +3909,9 @@
         <v>1.8996493232157231E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="B38" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="15">
         <f>B13-2</f>
@@ -3929,9 +3928,9 @@
       <c r="F38" s="16"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="18" thickBot="1">
       <c r="B39" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="19">
         <f>C37+C38</f>
@@ -3945,44 +3944,44 @@
       <c r="F39" s="20"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="B41" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <f>D37/D39</f>
         <v>0.9095587614168813</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7">
       <c r="B42" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <f>SQRT(C41)</f>
         <v>0.95370790151748308</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
         <v>61</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>62</v>
       </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:7">
       <c r="B47">
         <f>$F$18+$F$19*E4</f>
         <v>491.76946222044199</v>
@@ -3996,7 +3995,7 @@
         <v>6120.017041278852</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7">
       <c r="B48">
         <f t="shared" ref="B48:B56" si="10">$F$18+$F$19*E5</f>
         <v>403.42438568991025</v>
@@ -4010,7 +4009,7 @@
         <v>2344.9211294451848</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7">
       <c r="B49">
         <f t="shared" si="10"/>
         <v>219.37214291796903</v>
@@ -4024,7 +4023,7 @@
         <v>244.22991697638557</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7">
       <c r="B50">
         <f t="shared" si="10"/>
         <v>188.87205697290449</v>
@@ -4038,7 +4037,7 @@
         <v>833.59567384664263</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7">
       <c r="B51">
         <f t="shared" si="10"/>
         <v>87.90625522372531</v>
@@ -4052,7 +4051,7 @@
         <v>2713.7582448156463</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7">
       <c r="B52">
         <f t="shared" si="10"/>
         <v>134.18224769209911</v>
@@ -4066,7 +4065,7 @@
         <v>17.49119575806834</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7">
       <c r="B53">
         <f t="shared" si="10"/>
         <v>323.49312597181006</v>
@@ -4080,7 +4079,7 @@
         <v>156.07819654751503</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7">
       <c r="B54">
         <f t="shared" si="10"/>
         <v>446.5451968536222</v>
@@ -4094,7 +4093,7 @@
         <v>1810.0937753134644</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7">
       <c r="B55">
         <f t="shared" si="10"/>
         <v>640.0629835395489</v>
@@ -4108,7 +4107,7 @@
         <v>98.744296135276201</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7">
       <c r="B56">
         <f t="shared" si="10"/>
         <v>219.37214291796903</v>
@@ -4122,9 +4121,9 @@
         <v>375.27992123421762</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <f>SUM(C47:C56)</f>
@@ -4135,30 +4134,30 @@
         <v>14714.209391351253</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" ht="18" thickBot="1"/>
+    <row r="59" spans="2:7">
       <c r="B59" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="E59" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="F59" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G59" s="10" t="s">
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="11" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="C60" s="12">
         <v>1</v>
@@ -4180,9 +4179,9 @@
         <v>1.720634190342916E-6</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7">
       <c r="B61" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="15">
         <f>B13-2</f>
@@ -4199,9 +4198,9 @@
       <c r="F61" s="16"/>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:7" ht="18" thickBot="1">
       <c r="B62" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="19">
         <f>C60+C61</f>
@@ -4215,27 +4214,27 @@
       <c r="F62" s="20"/>
       <c r="G62" s="21"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7">
       <c r="B64" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64">
         <f>D60/D62</f>
         <v>0.95016938108383175</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:3">
       <c r="B65" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65">
         <f>SQRT(C64)</f>
         <v>0.97476632127081198</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
